--- a/docs/RTS-Statistics_plan.xlsx
+++ b/docs/RTS-Statistics_plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11730"/>
+    <workbookView windowWidth="27071" windowHeight="14088"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Weapon</t>
   </si>
@@ -45,15 +45,12 @@
     <t>Range</t>
   </si>
   <si>
-    <t>2600</t>
+    <t>2600m</t>
   </si>
   <si>
     <t>Accuracy</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Shot type</t>
   </si>
   <si>
@@ -76,6 +73,117 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Rate of Fire</t>
+  </si>
+  <si>
+    <t>12 r/min</t>
+  </si>
+  <si>
+    <t>Suppression</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>FOOT</t>
+  </si>
+  <si>
+    <t>WALKER</t>
+  </si>
+  <si>
+    <t>WHEELED</t>
+  </si>
+  <si>
+    <t>TRACKED</t>
+  </si>
+  <si>
+    <t>HOVER</t>
+  </si>
+  <si>
+    <t>VTOL</t>
+  </si>
+  <si>
+    <t>FLYER</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Float(0-2000)</t>
+  </si>
+  <si>
+    <t>Armour</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Float(0-1)</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Sides</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Int(1-10)</t>
+  </si>
+  <si>
+    <t>Spotting</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>CONSCRIPT</t>
+  </si>
+  <si>
+    <t>ROOKIE</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>TRAINED</t>
+  </si>
+  <si>
+    <t>ELITE</t>
+  </si>
+  <si>
+    <t>COMMANDO</t>
+  </si>
+  <si>
+    <t>Float(0-1000)</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Float(0-10000)</t>
+  </si>
+  <si>
+    <t>Litres</t>
   </si>
 </sst>
 </file>
@@ -697,9 +805,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1020,20 +1133,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="9.85714285714286" customWidth="1"/>
+    <col min="1" max="1" width="13.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="9.86111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1041,7 +1154,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1049,56 +1162,72 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1117,14 +1246,179 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.7777777777778" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9.13888888888889" style="2"/>
+    <col min="8" max="8" width="11.6666666666667" style="2" customWidth="1"/>
+    <col min="9" max="24" width="9.13888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
